--- a/data/Damage Dealt - Wildemount.xlsx
+++ b/data/Damage Dealt - Wildemount.xlsx
@@ -108,6 +108,8 @@
     <sheet state="visible" name="2-101" sheetId="103" r:id="rId105"/>
     <sheet state="visible" name="2-102" sheetId="104" r:id="rId106"/>
     <sheet state="visible" name="2-103" sheetId="105" r:id="rId107"/>
+    <sheet state="visible" name="2-104" sheetId="106" r:id="rId108"/>
+    <sheet state="visible" name="2-105" sheetId="107" r:id="rId109"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -115,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="109">
   <si>
     <t>Player</t>
   </si>
@@ -373,6 +375,12 @@
   </si>
   <si>
     <t>02-103</t>
+  </si>
+  <si>
+    <t>02-104</t>
+  </si>
+  <si>
+    <t>02-105</t>
   </si>
   <si>
     <t>Y</t>
@@ -639,6 +647,14 @@
 </file>
 
 <file path=xl/drawings/drawing105.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing106.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing107.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1083,23 +1099,23 @@
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B1000), "-")</f>
-        <v>36.46464646</v>
+        <v>37.95049505</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" si="1"/>
-        <v>38.9223301</v>
+        <v>40.33333333</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="1"/>
-        <v>37.74757282</v>
+        <v>38.0952381</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" si="1"/>
-        <v>37.15533981</v>
+        <v>37.03809524</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" si="1"/>
-        <v>29.1010101</v>
+        <v>28.68316832</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" si="1"/>
@@ -1107,11 +1123,11 @@
       </c>
       <c r="H2" s="3">
         <f t="shared" si="1"/>
-        <v>43.77464789</v>
+        <v>42.8630137</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="1"/>
-        <v>18.18421053</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -1120,23 +1136,23 @@
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:I3" si="2">SUM(B4:B1000)</f>
-        <v>3610</v>
+        <v>3833</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" si="2"/>
-        <v>4009</v>
+        <v>4235</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" si="2"/>
-        <v>3888</v>
+        <v>4000</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="2"/>
-        <v>3827</v>
+        <v>3889</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="2"/>
-        <v>2881</v>
+        <v>2897</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="2"/>
@@ -1144,11 +1160,11 @@
       </c>
       <c r="H3" s="5">
         <f t="shared" si="2"/>
-        <v>3108</v>
+        <v>3129</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="2"/>
-        <v>1382</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4">
@@ -4963,16 +4979,78 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="16"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
+      <c r="A107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="10">
+        <f>IF(Attendance!B105="Y", '2-104'!B$3, "N/A")</f>
+        <v>127</v>
+      </c>
+      <c r="C107" s="10">
+        <f>IF(Attendance!C105="Y", '2-104'!C$3, "N/A")</f>
+        <v>60</v>
+      </c>
+      <c r="D107" s="10">
+        <f>IF(Attendance!D105="Y", '2-104'!D$3, "N/A")</f>
+        <v>40</v>
+      </c>
+      <c r="E107" s="10">
+        <f>IF(Attendance!E105="Y", '2-104'!E$3, "N/A")</f>
+        <v>11</v>
+      </c>
+      <c r="F107" s="10">
+        <f>IF(Attendance!F105="Y", '2-104'!F$3, "N/A")</f>
+        <v>16</v>
+      </c>
+      <c r="G107" s="9" t="str">
+        <f>IF(Attendance!G105="Y", '2-104'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H107" s="10">
+        <f>IF(Attendance!H105="Y", '2-104'!H$3, "N/A")</f>
+        <v>21</v>
+      </c>
+      <c r="I107" s="10">
+        <f>IF(Attendance!I105="Y", '2-104'!I$3, "N/A")</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="16"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
+      <c r="A108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="10">
+        <f>IF(Attendance!B106="Y", '2-105'!B$3, "N/A")</f>
+        <v>96</v>
+      </c>
+      <c r="C108" s="10">
+        <f>IF(Attendance!C106="Y", '2-105'!C$3, "N/A")</f>
+        <v>166</v>
+      </c>
+      <c r="D108" s="10">
+        <f>IF(Attendance!D106="Y", '2-105'!D$3, "N/A")</f>
+        <v>72</v>
+      </c>
+      <c r="E108" s="10">
+        <f>IF(Attendance!E106="Y", '2-105'!E$3, "N/A")</f>
+        <v>51</v>
+      </c>
+      <c r="F108" s="10">
+        <f>IF(Attendance!F106="Y", '2-105'!F$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="9" t="str">
+        <f>IF(Attendance!G106="Y", '2-105'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H108" s="10">
+        <f>IF(Attendance!H106="Y", '2-105'!H$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="10">
+        <f>IF(Attendance!I106="Y", '2-105'!I$3, "N/A")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="16"/>
@@ -7961,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -7975,7 +8053,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -8114,13 +8192,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -8131,7 +8209,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -8393,13 +8471,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -8410,7 +8488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -8515,13 +8593,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -8532,7 +8610,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -8656,13 +8734,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -8673,7 +8751,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -8783,13 +8861,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -8800,7 +8878,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B22), "-")</f>
@@ -8937,13 +9015,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -8954,7 +9032,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B22), "-")</f>
@@ -9047,6 +9125,389 @@
       </c>
       <c r="I4" s="18">
         <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B22), "-")</f>
+        <v>63.5</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" si="1"/>
+        <v>8.571428571</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="20">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="I2" s="20">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <f>SUM(B4:B12)</f>
+        <v>127</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(C4:C14)</f>
+        <v>60</v>
+      </c>
+      <c r="D3" s="5">
+        <f>SUM(D4:D23)</f>
+        <v>40</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:I3" si="2">SUM(E4:E12)</f>
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="18">
+        <v>30.0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>40.0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>16.0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="18">
+        <v>97.0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="18">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="18">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="18">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="18">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="18">
+        <v>8.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B22), "-")</f>
+        <v>32</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" si="1"/>
+        <v>12.76923077</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I2" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <f>SUM(B4:B12)</f>
+        <v>96</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUM(C4:C16)</f>
+        <v>166</v>
+      </c>
+      <c r="D3" s="5">
+        <f>SUM(D4:D23)</f>
+        <v>72</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:I3" si="2">SUM(E4:E12)</f>
+        <v>51</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="18">
+        <v>30.0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>72.0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="18">
+        <v>49.0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="18">
+        <v>17.0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="18">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="18">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="18">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="18">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="18">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="18">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="18">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="18">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="18">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="18">
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
@@ -9083,7 +9544,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9097,7 +9558,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -9237,7 +9698,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9251,7 +9712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B8), "-")</f>
@@ -9440,7 +9901,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9454,7 +9915,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -9595,7 +10056,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9609,7 +10070,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -9772,7 +10233,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9786,7 +10247,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -9927,7 +10388,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9941,7 +10402,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -10084,7 +10545,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10098,7 +10559,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -10351,7 +10812,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10365,7 +10826,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -10537,7 +10998,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10551,7 +11012,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B10), "-")</f>
@@ -10790,28 +11251,28 @@
         <v>43132.0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -10819,31 +11280,31 @@
         <v>43133.0</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -10851,28 +11312,28 @@
         <v>43134.0</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -10880,28 +11341,28 @@
         <v>43135.0</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -10909,28 +11370,28 @@
         <v>43136.0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -10938,28 +11399,28 @@
         <v>43137.0</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -10967,28 +11428,28 @@
         <v>43138.0</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -10996,28 +11457,28 @@
         <v>43139.0</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -11025,28 +11486,28 @@
         <v>43140.0</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -11054,28 +11515,28 @@
         <v>43141.0</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -11083,28 +11544,28 @@
         <v>43142.0</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -11112,28 +11573,28 @@
         <v>43143.0</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -11141,28 +11602,28 @@
         <v>43144.0</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -11170,28 +11631,28 @@
         <v>43145.0</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -11199,28 +11660,28 @@
         <v>43146.0</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -11228,28 +11689,28 @@
         <v>43147.0</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -11257,28 +11718,28 @@
         <v>43148.0</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -11286,28 +11747,28 @@
         <v>43149.0</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -11315,28 +11776,28 @@
         <v>43150.0</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -11344,28 +11805,28 @@
         <v>43151.0</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -11373,28 +11834,28 @@
         <v>43152.0</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -11402,28 +11863,28 @@
         <v>43153.0</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -11431,28 +11892,28 @@
         <v>43154.0</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -11460,28 +11921,28 @@
         <v>43155.0</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -11489,28 +11950,28 @@
         <v>43156.0</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -11518,28 +11979,28 @@
         <v>43157.0</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -11547,28 +12008,28 @@
         <v>43158.0</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -11576,28 +12037,28 @@
         <v>43159.0</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -11605,28 +12066,28 @@
         <v>11</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -11634,28 +12095,28 @@
         <v>12</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -11663,28 +12124,28 @@
         <v>13</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
@@ -11692,28 +12153,28 @@
         <v>14</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -11721,28 +12182,28 @@
         <v>15</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -11750,28 +12211,28 @@
         <v>16</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -11779,28 +12240,28 @@
         <v>17</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -11808,28 +12269,28 @@
         <v>18</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -11837,28 +12298,28 @@
         <v>19</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -11866,28 +12327,28 @@
         <v>20</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
@@ -11895,28 +12356,28 @@
         <v>21</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
@@ -11924,28 +12385,28 @@
         <v>22</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
@@ -11953,28 +12414,28 @@
         <v>23</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
@@ -11982,28 +12443,28 @@
         <v>24</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
@@ -12011,28 +12472,28 @@
         <v>25</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
@@ -12040,28 +12501,28 @@
         <v>26</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
@@ -12069,28 +12530,28 @@
         <v>27</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -12098,28 +12559,28 @@
         <v>28</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
@@ -12127,28 +12588,28 @@
         <v>29</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
@@ -12156,28 +12617,28 @@
         <v>30</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
@@ -12185,28 +12646,28 @@
         <v>31</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
@@ -12214,28 +12675,28 @@
         <v>32</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
@@ -12243,28 +12704,28 @@
         <v>33</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
@@ -12272,28 +12733,28 @@
         <v>34</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
@@ -12301,28 +12762,28 @@
         <v>35</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
@@ -12330,28 +12791,28 @@
         <v>36</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
@@ -12359,28 +12820,28 @@
         <v>37</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
@@ -12388,28 +12849,28 @@
         <v>38</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
@@ -12417,28 +12878,28 @@
         <v>39</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
@@ -12446,28 +12907,28 @@
         <v>40</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
@@ -12475,28 +12936,28 @@
         <v>41</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
@@ -12504,28 +12965,28 @@
         <v>42</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
@@ -12533,28 +12994,28 @@
         <v>43</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63">
@@ -12562,28 +13023,28 @@
         <v>44</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64">
@@ -12591,28 +13052,28 @@
         <v>45</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
@@ -12620,28 +13081,28 @@
         <v>46</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
@@ -12649,28 +13110,28 @@
         <v>47</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
@@ -12678,28 +13139,28 @@
         <v>48</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
@@ -12707,28 +13168,28 @@
         <v>49</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
@@ -12736,28 +13197,28 @@
         <v>50</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
@@ -12765,28 +13226,28 @@
         <v>51</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
@@ -12794,28 +13255,28 @@
         <v>52</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72">
@@ -12823,28 +13284,28 @@
         <v>53</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73">
@@ -12852,28 +13313,28 @@
         <v>54</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
@@ -12881,28 +13342,28 @@
         <v>55</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75">
@@ -12910,28 +13371,28 @@
         <v>56</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76">
@@ -12939,28 +13400,28 @@
         <v>57</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
@@ -12968,28 +13429,28 @@
         <v>58</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
@@ -12997,28 +13458,28 @@
         <v>59</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
@@ -13026,28 +13487,28 @@
         <v>60</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
@@ -13055,28 +13516,28 @@
         <v>61</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
@@ -13084,28 +13545,28 @@
         <v>62</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
@@ -13113,28 +13574,28 @@
         <v>63</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83">
@@ -13142,28 +13603,28 @@
         <v>64</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
@@ -13171,28 +13632,28 @@
         <v>65</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
@@ -13200,28 +13661,28 @@
         <v>66</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86">
@@ -13229,28 +13690,28 @@
         <v>67</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
@@ -13258,28 +13719,28 @@
         <v>68</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
@@ -13287,28 +13748,28 @@
         <v>69</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89">
@@ -13316,28 +13777,28 @@
         <v>70</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
@@ -13345,28 +13806,28 @@
         <v>71</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
@@ -13374,28 +13835,28 @@
         <v>72</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92">
@@ -13403,28 +13864,28 @@
         <v>73</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93">
@@ -13432,28 +13893,28 @@
         <v>74</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94">
@@ -13461,28 +13922,28 @@
         <v>75</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95">
@@ -13490,28 +13951,28 @@
         <v>76</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96">
@@ -13519,28 +13980,28 @@
         <v>77</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97">
@@ -13548,28 +14009,28 @@
         <v>78</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98">
@@ -13577,28 +14038,28 @@
         <v>79</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99">
@@ -13606,28 +14067,28 @@
         <v>80</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100">
@@ -13635,28 +14096,28 @@
         <v>81</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101">
@@ -13664,28 +14125,28 @@
         <v>82</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102">
@@ -13693,28 +14154,28 @@
         <v>83</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103">
@@ -13722,28 +14183,28 @@
         <v>84</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104">
@@ -13751,35 +14212,87 @@
         <v>85</v>
       </c>
       <c r="B104" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G104" s="18" t="s">
+      <c r="B105" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H104" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I104" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="16"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="16"/>
+      <c r="B106" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="16"/>
@@ -13887,7 +14400,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -13901,7 +14414,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -14059,7 +14572,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14073,7 +14586,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B16), "-")</f>
@@ -14328,7 +14841,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14342,7 +14855,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B9), "-")</f>
@@ -14521,7 +15034,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14533,12 +15046,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -14809,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14823,7 +15336,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B13), "-")</f>
@@ -15083,7 +15596,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15097,7 +15610,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B9), "-")</f>
@@ -15264,7 +15777,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15278,7 +15791,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -15388,7 +15901,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15402,7 +15915,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -15614,7 +16127,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15626,12 +16139,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:F2" si="1">IF(B3&gt;0, AVERAGE(B4:B18), "-")</f>
@@ -15902,7 +16415,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15914,15 +16427,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:F2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -16072,7 +16585,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -16086,7 +16599,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B8), "-")</f>
@@ -16253,13 +16766,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16268,15 +16781,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -16495,13 +17008,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16510,15 +17023,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B20), "-")</f>
@@ -16832,13 +17345,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16847,15 +17360,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -17016,13 +17529,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17033,7 +17546,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -17172,13 +17685,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17189,7 +17702,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -17361,13 +17874,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17378,7 +17891,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B5), "-")</f>
@@ -17514,13 +18027,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17531,7 +18044,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -17793,13 +18306,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17810,7 +18323,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B10), "-")</f>
@@ -18015,13 +18528,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18032,7 +18545,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -18201,13 +18714,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18218,7 +18731,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B5), "-")</f>
@@ -18351,7 +18864,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -18365,7 +18878,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="7" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -18496,13 +19009,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18513,7 +19026,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B8), "-")</f>
@@ -18692,13 +19205,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18709,7 +19222,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -19013,13 +19526,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19030,7 +19543,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -19194,13 +19707,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19211,7 +19724,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -19333,13 +19846,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19350,7 +19863,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -19474,13 +19987,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19489,12 +20002,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -19699,13 +20212,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19716,7 +20229,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -19952,13 +20465,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19967,15 +20480,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20242,13 +20755,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20259,7 +20772,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20444,13 +20957,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20461,7 +20974,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20698,7 +21211,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -20712,7 +21225,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -20907,13 +21420,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20924,7 +21437,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21051,13 +21564,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21068,7 +21581,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21195,13 +21708,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21210,12 +21723,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21415,13 +21928,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21430,12 +21943,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21637,13 +22150,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21654,7 +22167,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21859,13 +22372,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21876,7 +22389,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22034,13 +22547,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22051,7 +22564,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22189,13 +22702,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22206,7 +22719,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22523,13 +23036,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22540,7 +23053,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22667,13 +23180,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22684,7 +23197,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22813,7 +23326,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -22827,7 +23340,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -22978,13 +23491,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22995,7 +23508,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23122,13 +23635,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23139,7 +23652,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23358,13 +23871,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23375,7 +23888,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23583,13 +24096,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23600,7 +24113,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23727,13 +24240,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23744,7 +24257,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23871,13 +24384,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23888,7 +24401,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24051,13 +24564,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24066,18 +24579,18 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:L2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24325,13 +24838,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24340,18 +24853,18 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:L2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24527,13 +25040,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24542,18 +25055,18 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:L2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24740,13 +25253,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24757,7 +25270,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25150,7 +25663,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -25164,7 +25677,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B9), "-")</f>
@@ -25363,13 +25876,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25380,7 +25893,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25553,13 +26066,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25568,12 +26081,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25865,13 +26378,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25880,12 +26393,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26000,13 +26513,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26015,12 +26528,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26135,13 +26648,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26150,12 +26663,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26280,13 +26793,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26295,12 +26808,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26490,13 +27003,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26505,12 +27018,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26630,13 +27143,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26645,12 +27158,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26827,13 +27340,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26842,12 +27355,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26973,13 +27486,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26990,7 +27503,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -27104,7 +27617,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -27118,7 +27631,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:F2" si="1">IF(B3&gt;0, AVERAGE(B4:B10), "-")</f>
@@ -27331,13 +27844,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -27348,7 +27861,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -27453,13 +27966,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -27468,12 +27981,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -27612,13 +28125,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -27627,12 +28140,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -27842,13 +28355,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -27859,7 +28372,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -28084,13 +28597,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -28099,12 +28612,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -28415,13 +28928,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -28430,12 +28943,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -28548,13 +29061,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -28563,12 +29076,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -28686,13 +29199,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -28703,7 +29216,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -28856,13 +29369,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -28871,12 +29384,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -29224,13 +29737,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -29241,7 +29754,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -29428,7 +29941,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -29440,12 +29953,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -29737,13 +30250,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -29754,7 +30267,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -29882,13 +30395,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -29899,7 +30412,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -30097,13 +30610,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -30114,7 +30627,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -30219,13 +30732,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -30236,7 +30749,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -30341,13 +30854,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -30358,7 +30871,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -30468,13 +30981,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -30485,7 +30998,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -30656,13 +31169,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -30673,7 +31186,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -30859,13 +31372,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -30876,7 +31389,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -31111,13 +31624,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -31128,7 +31641,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -31363,7 +31876,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -31374,7 +31887,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
